--- a/testscore.xlsx
+++ b/testscore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\202500197\Documents\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DC524B-8F66-46BD-BA98-6AFD01658B4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B6C46E-50DB-4A7D-A710-857292D631A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15200" windowHeight="9920" xr2:uid="{771F5AF4-0362-4130-8B82-8A78D045FEF1}"/>
   </bookViews>
@@ -766,15 +766,33 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -808,28 +826,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1150,7 +1150,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="L2" sqref="L2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1159,22 +1159,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53"/>
+      <c r="A1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="59"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
       <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
@@ -1199,19 +1199,19 @@
       <c r="J2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="58"/>
+      <c r="L2" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="64"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="49" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="33">
         <f>SUM(M4:M5)</f>
@@ -1225,23 +1225,23 @@
         <f>C3-D3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="67">
+      <c r="F3" s="47">
         <f>SUM(C3:C4)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="61">
+      <c r="G3" s="53">
         <f>SUM(C3:C4)/COUNTA(C3:C4)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="65">
+      <c r="H3" s="51">
         <f>SUM(D3:D4)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="61">
+      <c r="I3" s="53">
         <f>SUM(D3:D4)/COUNTA(D3:D4)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="63">
+      <c r="J3" s="67">
         <f>G3-I3</f>
         <v>0</v>
       </c>
@@ -1257,9 +1257,9 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="49"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="23"/>
@@ -1267,11 +1267,11 @@
         <f>C4-D4</f>
         <v>0</v>
       </c>
-      <c r="F4" s="68"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="64"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="68"/>
       <c r="L4" s="7" t="s">
         <v>26</v>
       </c>
@@ -1283,7 +1283,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="50" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="19" t="s">
@@ -1295,23 +1295,23 @@
         <f>C5-D5</f>
         <v>0</v>
       </c>
-      <c r="F5" s="68">
+      <c r="F5" s="48">
         <f>SUM(C5:C6)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="62" t="e">
+      <c r="G5" s="54" t="e">
         <f t="shared" ref="G5" si="0">SUM(C5:C6)/COUNTA(C5:C6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H5" s="66">
+      <c r="H5" s="52">
         <f t="shared" ref="H5" si="1">SUM(D5:D6)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="62" t="e">
+      <c r="I5" s="54" t="e">
         <f t="shared" ref="I5" si="2">SUM(D5:D6)/COUNTA(D5:D6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J5" s="64" t="e">
+      <c r="J5" s="68" t="e">
         <f t="shared" ref="J5" si="3">G5-I5</f>
         <v>#DIV/0!</v>
       </c>
@@ -1326,7 +1326,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="49"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
@@ -1336,14 +1336,14 @@
         <f t="shared" ref="E6:E14" si="4">C6-D6</f>
         <v>0</v>
       </c>
-      <c r="F6" s="68"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="64"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="68"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="50" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="19" t="s">
@@ -1355,29 +1355,29 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F7" s="68">
+      <c r="F7" s="48">
         <f>SUM(C7:C8)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="62" t="e">
+      <c r="G7" s="54" t="e">
         <f t="shared" ref="G7" si="5">SUM(C7:C8)/COUNTA(C7:C8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H7" s="66">
+      <c r="H7" s="52">
         <f t="shared" ref="H7" si="6">SUM(D7:D8)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="62" t="e">
+      <c r="I7" s="54" t="e">
         <f t="shared" ref="I7" si="7">SUM(D7:D8)/COUNTA(D7:D8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="64" t="e">
+      <c r="J7" s="68" t="e">
         <f t="shared" ref="J7" si="8">G7-I7</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="49"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="19" t="s">
         <v>14</v>
       </c>
@@ -1387,14 +1387,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="64"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="68"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="50" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="19" t="s">
@@ -1406,29 +1406,29 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F9" s="68">
+      <c r="F9" s="48">
         <f>SUM(C9:C10)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="62" t="e">
+      <c r="G9" s="54" t="e">
         <f t="shared" ref="G9" si="9">SUM(C9:C10)/COUNTA(C9:C10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="66">
+      <c r="H9" s="52">
         <f t="shared" ref="H9" si="10">SUM(D9:D10)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="62" t="e">
+      <c r="I9" s="54" t="e">
         <f t="shared" ref="I9" si="11">SUM(D9:D10)/COUNTA(D9:D10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J9" s="64" t="e">
+      <c r="J9" s="68" t="e">
         <f t="shared" ref="J9" si="12">G9-I9</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="49"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="19" t="s">
         <v>16</v>
       </c>
@@ -1438,14 +1438,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F10" s="68"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="64"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="68"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="50" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="19" t="s">
@@ -1457,29 +1457,29 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F11" s="68">
+      <c r="F11" s="48">
         <f t="shared" ref="F11" si="13">SUM(C11:C12)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="62" t="e">
+      <c r="G11" s="54" t="e">
         <f>SUM(C11:C12)/COUNTA(C11:C12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="66">
+      <c r="H11" s="52">
         <f t="shared" ref="H11" si="14">SUM(D11:D12)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="62" t="e">
+      <c r="I11" s="54" t="e">
         <f t="shared" ref="I11" si="15">SUM(D11:D12)/COUNTA(D11:D12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="64" t="e">
+      <c r="J11" s="68" t="e">
         <f t="shared" ref="J11" si="16">G11-I11</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="49"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="19" t="s">
         <v>18</v>
       </c>
@@ -1489,11 +1489,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F12" s="68"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="64"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="68"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="19"/>
@@ -1530,10 +1530,10 @@
       <c r="J14" s="31"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="48"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="33">
         <f>SUM(C3:C14)</f>
         <v>0</v>
@@ -1553,10 +1553,10 @@
       <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="50"/>
+      <c r="B16" s="56"/>
       <c r="C16" s="22">
         <f>SUM(C3:C14)/COUNTA(C3:C14)</f>
         <v>0</v>
@@ -1576,10 +1576,10 @@
       <c r="J16" s="27"/>
     </row>
     <row r="17" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="55"/>
+      <c r="B17" s="61"/>
       <c r="C17" s="36" t="e">
         <f>C15/D15</f>
         <v>#DIV/0!</v>
@@ -1594,26 +1594,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A1:J1"/>
@@ -1630,6 +1610,26 @@
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="J11:J12"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testscore.xlsx
+++ b/testscore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\202500197\Documents\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B6C46E-50DB-4A7D-A710-857292D631A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C34EF6E-787E-4E29-9E09-C1BFBCFD19F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15200" windowHeight="9920" xr2:uid="{771F5AF4-0362-4130-8B82-8A78D045FEF1}"/>
   </bookViews>
@@ -766,70 +766,70 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1150,7 +1150,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:O2"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1159,22 +1159,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="59"/>
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="53"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
@@ -1199,15 +1199,15 @@
       <c r="J2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="62" t="s">
+      <c r="L2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="64"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="58"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="18" t="s">
@@ -1225,23 +1225,23 @@
         <f>C3-D3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="47">
+      <c r="F3" s="67">
         <f>SUM(C3:C4)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="53">
+      <c r="G3" s="61">
         <f>SUM(C3:C4)/COUNTA(C3:C4)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="51">
+      <c r="H3" s="65">
         <f>SUM(D3:D4)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="53">
+      <c r="I3" s="61">
         <f>SUM(D3:D4)/COUNTA(D3:D4)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="67">
+      <c r="J3" s="63">
         <f>G3-I3</f>
         <v>0</v>
       </c>
@@ -1257,7 +1257,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="50"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
@@ -1267,11 +1267,11 @@
         <f>C4-D4</f>
         <v>0</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="64"/>
       <c r="L4" s="7" t="s">
         <v>26</v>
       </c>
@@ -1283,7 +1283,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="49" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="19" t="s">
@@ -1295,23 +1295,23 @@
         <f>C5-D5</f>
         <v>0</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="68">
         <f>SUM(C5:C6)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="54" t="e">
+      <c r="G5" s="62" t="e">
         <f t="shared" ref="G5" si="0">SUM(C5:C6)/COUNTA(C5:C6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H5" s="52">
+      <c r="H5" s="66">
         <f t="shared" ref="H5" si="1">SUM(D5:D6)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="54" t="e">
+      <c r="I5" s="62" t="e">
         <f t="shared" ref="I5" si="2">SUM(D5:D6)/COUNTA(D5:D6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J5" s="68" t="e">
+      <c r="J5" s="64" t="e">
         <f t="shared" ref="J5" si="3">G5-I5</f>
         <v>#DIV/0!</v>
       </c>
@@ -1326,7 +1326,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="50"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
@@ -1336,14 +1336,14 @@
         <f t="shared" ref="E6:E14" si="4">C6-D6</f>
         <v>0</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="64"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="49" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="19" t="s">
@@ -1355,29 +1355,29 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="68">
         <f>SUM(C7:C8)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="54" t="e">
+      <c r="G7" s="62" t="e">
         <f t="shared" ref="G7" si="5">SUM(C7:C8)/COUNTA(C7:C8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="66">
         <f t="shared" ref="H7" si="6">SUM(D7:D8)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="54" t="e">
+      <c r="I7" s="62" t="e">
         <f t="shared" ref="I7" si="7">SUM(D7:D8)/COUNTA(D7:D8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="68" t="e">
+      <c r="J7" s="64" t="e">
         <f t="shared" ref="J7" si="8">G7-I7</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="50"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="19" t="s">
         <v>14</v>
       </c>
@@ -1387,14 +1387,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="64"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="49" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="19" t="s">
@@ -1406,29 +1406,29 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="68">
         <f>SUM(C9:C10)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="54" t="e">
+      <c r="G9" s="62" t="e">
         <f t="shared" ref="G9" si="9">SUM(C9:C10)/COUNTA(C9:C10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="52">
+      <c r="H9" s="66">
         <f t="shared" ref="H9" si="10">SUM(D9:D10)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="54" t="e">
+      <c r="I9" s="62" t="e">
         <f t="shared" ref="I9" si="11">SUM(D9:D10)/COUNTA(D9:D10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J9" s="68" t="e">
+      <c r="J9" s="64" t="e">
         <f t="shared" ref="J9" si="12">G9-I9</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="50"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="19" t="s">
         <v>16</v>
       </c>
@@ -1438,14 +1438,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="64"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="49" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="19" t="s">
@@ -1457,29 +1457,29 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="68">
         <f t="shared" ref="F11" si="13">SUM(C11:C12)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="54" t="e">
+      <c r="G11" s="62" t="e">
         <f>SUM(C11:C12)/COUNTA(C11:C12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="52">
+      <c r="H11" s="66">
         <f t="shared" ref="H11" si="14">SUM(D11:D12)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="54" t="e">
+      <c r="I11" s="62" t="e">
         <f t="shared" ref="I11" si="15">SUM(D11:D12)/COUNTA(D11:D12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="68" t="e">
+      <c r="J11" s="64" t="e">
         <f t="shared" ref="J11" si="16">G11-I11</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="50"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="19" t="s">
         <v>18</v>
       </c>
@@ -1489,11 +1489,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="64"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="19"/>
@@ -1530,10 +1530,10 @@
       <c r="J14" s="31"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="55"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="33">
         <f>SUM(C3:C14)</f>
         <v>0</v>
@@ -1553,10 +1553,10 @@
       <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="56"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="22">
         <f>SUM(C3:C14)/COUNTA(C3:C14)</f>
         <v>0</v>
@@ -1565,10 +1565,7 @@
         <f>SUM(D3:D14)/COUNTA(D3:D14)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="40">
-        <f>SUM(E3:E14)/COUNTA(E3:E14)</f>
-        <v>0</v>
-      </c>
+      <c r="E16" s="40"/>
       <c r="F16" s="24"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
@@ -1576,10 +1573,10 @@
       <c r="J16" s="27"/>
     </row>
     <row r="17" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="61"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="36" t="e">
         <f>C15/D15</f>
         <v>#DIV/0!</v>
@@ -1594,6 +1591,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A1:J1"/>
@@ -1610,32 +1627,12 @@
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="J11:J12"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C16:E16 J3:J12 E3 D15 C17" evalError="1"/>
+    <ignoredError sqref="C16:D16 J3:J12 E3 D15 C17" evalError="1"/>
     <ignoredError sqref="H5:I6 F5:F6 G5:G6 H3:I3 F3 F4:I4 G3 H12:I12 F12 H7:I10 F7:F10 F11:I11 G7:G10 G12" evalError="1" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>

--- a/testscore.xlsx
+++ b/testscore.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCD315B-F087-437F-BD7B-E059329B3916}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE8540D-60B5-49C6-A35F-59A1671FEB3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9200" xr2:uid="{AF6B7D3C-119C-4997-8390-B2C1EE4FC562}"/>
   </bookViews>
@@ -303,7 +303,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="[Blue]\+0.00&quot;点&quot;;[Red]\-0.00&quot;点&quot;;0&quot;点&quot;"/>
-    <numFmt numFmtId="181" formatCode="General&quot;点&quot;"/>
+    <numFmt numFmtId="177" formatCode="General&quot;点&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -716,25 +716,163 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -746,181 +884,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -932,25 +932,25 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
-      <numFmt numFmtId="181" formatCode="General&quot;点&quot;"/>
+      <numFmt numFmtId="177" formatCode="General&quot;点&quot;"/>
     </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
-      <numFmt numFmtId="181" formatCode="General&quot;点&quot;"/>
+      <numFmt numFmtId="177" formatCode="General&quot;点&quot;"/>
     </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
-      <numFmt numFmtId="181" formatCode="General&quot;点&quot;"/>
+      <numFmt numFmtId="177" formatCode="General&quot;点&quot;"/>
     </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
-      <numFmt numFmtId="181" formatCode="General&quot;点&quot;"/>
+      <numFmt numFmtId="177" formatCode="General&quot;点&quot;"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1265,7 +1265,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="R20" sqref="R20:S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1292,1101 +1292,1139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="8" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="8" t="s">
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="8" t="s">
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="10"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="56"/>
     </row>
     <row r="2" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="19" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="21" t="s">
+      <c r="F2" s="60"/>
+      <c r="G2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="27" t="s">
+      <c r="I2" s="58"/>
+      <c r="J2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="21" t="s">
+      <c r="K2" s="60"/>
+      <c r="L2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="20"/>
-      <c r="O2" s="27" t="s">
+      <c r="N2" s="58"/>
+      <c r="O2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="21" t="s">
+      <c r="P2" s="60"/>
+      <c r="Q2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="R2" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="20"/>
-      <c r="T2" s="27" t="s">
+      <c r="S2" s="58"/>
+      <c r="T2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="28"/>
-      <c r="V2" s="21" t="s">
+      <c r="U2" s="60"/>
+      <c r="V2" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="3">
+      <c r="C3" s="5"/>
+      <c r="D3" s="42">
         <f>SUM(C3:C4)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23">
+      <c r="E3" s="11"/>
+      <c r="F3" s="68">
         <f>SUM(E3:E4)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="46">
         <f>D3-F3</f>
         <v>0</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="3">
+      <c r="H3" s="5"/>
+      <c r="I3" s="42">
         <f>SUM(H3:H4)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="24">
+      <c r="J3" s="1"/>
+      <c r="K3" s="44">
         <f>SUM(J3:J4)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="46">
         <f>I3-K3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="3">
+      <c r="M3" s="5"/>
+      <c r="N3" s="42">
         <f>SUM(M3:M4)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="24">
+      <c r="O3" s="1"/>
+      <c r="P3" s="44">
         <f>SUM(O3:O4)</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="46">
         <f>N3-P3</f>
         <v>0</v>
       </c>
-      <c r="R3" s="11"/>
-      <c r="S3" s="3">
+      <c r="R3" s="5"/>
+      <c r="S3" s="42">
         <f>SUM(R3:R4)</f>
         <v>0</v>
       </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="24">
+      <c r="T3" s="1"/>
+      <c r="U3" s="44">
         <f>SUM(T3:T4)</f>
         <v>0</v>
       </c>
-      <c r="V3" s="12">
+      <c r="V3" s="46">
         <f>S3-U3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="12"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="46"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1"/>
+      <c r="A5" s="67"/>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="5">
+      <c r="C5" s="5"/>
+      <c r="D5" s="3">
         <f>C5</f>
         <v>0</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="25">
+      <c r="E5" s="1"/>
+      <c r="F5" s="12">
         <f>E5</f>
         <v>0</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="6">
         <f>D5-F5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="5">
+      <c r="H5" s="5"/>
+      <c r="I5" s="3">
         <f>H5</f>
         <v>0</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="25">
+      <c r="J5" s="1"/>
+      <c r="K5" s="12">
         <f>J5</f>
         <v>0</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="6">
         <f>I5-K5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="5">
+      <c r="M5" s="5"/>
+      <c r="N5" s="3">
         <f>M5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="25">
+      <c r="O5" s="1"/>
+      <c r="P5" s="12">
         <f>O5</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="6">
         <f>N5-P5</f>
         <v>0</v>
       </c>
-      <c r="R5" s="11"/>
-      <c r="S5" s="5">
+      <c r="R5" s="5"/>
+      <c r="S5" s="3">
         <f>R5</f>
         <v>0</v>
       </c>
-      <c r="T5" s="2"/>
-      <c r="U5" s="25">
+      <c r="T5" s="1"/>
+      <c r="U5" s="12">
         <f>T5</f>
         <v>0</v>
       </c>
-      <c r="V5" s="13">
+      <c r="V5" s="6">
         <f>S5-U5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1"/>
+      <c r="A6" s="67"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="5">
+      <c r="C6" s="5"/>
+      <c r="D6" s="3">
         <f>C6</f>
         <v>0</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="25">
+      <c r="E6" s="1"/>
+      <c r="F6" s="12">
         <f>E6</f>
         <v>0</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="6">
         <f>D6-F6</f>
         <v>0</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="5">
+      <c r="H6" s="5"/>
+      <c r="I6" s="3">
         <f>H6</f>
         <v>0</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="25">
+      <c r="J6" s="1"/>
+      <c r="K6" s="12">
         <f>J6</f>
         <v>0</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="6">
         <f>I6-K6</f>
         <v>0</v>
       </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="5">
+      <c r="M6" s="5"/>
+      <c r="N6" s="3">
         <f>M6</f>
         <v>0</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="25">
+      <c r="O6" s="1"/>
+      <c r="P6" s="12">
         <f>O6</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="6">
         <f>N6-P6</f>
         <v>0</v>
       </c>
-      <c r="R6" s="11"/>
-      <c r="S6" s="5">
+      <c r="R6" s="5"/>
+      <c r="S6" s="3">
         <f>R6</f>
         <v>0</v>
       </c>
-      <c r="T6" s="2"/>
-      <c r="U6" s="25">
+      <c r="T6" s="1"/>
+      <c r="U6" s="12">
         <f>T6</f>
         <v>0</v>
       </c>
-      <c r="V6" s="13">
+      <c r="V6" s="6">
         <f>S6-U6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37">
+      <c r="C7" s="15"/>
+      <c r="D7" s="61">
         <f>SUM(C7:C8)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39">
+      <c r="E7" s="16"/>
+      <c r="F7" s="62">
         <f>SUM(E7:E8)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="63">
         <f>D7-F7</f>
         <v>0</v>
       </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="37">
+      <c r="H7" s="15"/>
+      <c r="I7" s="61">
         <f>SUM(H7:H8)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="39">
+      <c r="J7" s="16"/>
+      <c r="K7" s="62">
         <f>SUM(J7:J8)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="63">
         <f>I7-K7</f>
         <v>0</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="37">
+      <c r="M7" s="15"/>
+      <c r="N7" s="61">
         <f>SUM(M7:M8)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="39">
+      <c r="O7" s="16"/>
+      <c r="P7" s="62">
         <f>SUM(O7:O8)</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="40">
+      <c r="Q7" s="63">
         <f>N7-P7</f>
         <v>0</v>
       </c>
-      <c r="R7" s="36"/>
-      <c r="S7" s="37">
+      <c r="R7" s="15"/>
+      <c r="S7" s="61">
         <f>SUM(R7:R8)</f>
         <v>0</v>
       </c>
-      <c r="T7" s="38"/>
-      <c r="U7" s="39">
+      <c r="T7" s="16"/>
+      <c r="U7" s="62">
         <f>SUM(T7:T8)</f>
         <v>0</v>
       </c>
-      <c r="V7" s="40">
+      <c r="V7" s="63">
         <f>S7-U7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="12"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="46"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="65"/>
+      <c r="B9" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="3">
+      <c r="C9" s="5"/>
+      <c r="D9" s="42">
         <f>SUM(C9:C10)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="24">
+      <c r="E9" s="1"/>
+      <c r="F9" s="44">
         <f>SUM(E9:E10)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="46">
         <f>D9-F9</f>
         <v>0</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="3">
+      <c r="H9" s="5"/>
+      <c r="I9" s="42">
         <f>SUM(H9:H10)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="24">
+      <c r="J9" s="1"/>
+      <c r="K9" s="44">
         <f>SUM(J9:J10)</f>
         <v>0</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="46">
         <f>I9-K9</f>
         <v>0</v>
       </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="3">
+      <c r="M9" s="5"/>
+      <c r="N9" s="42">
         <f>SUM(M9:M10)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="24">
+      <c r="O9" s="1"/>
+      <c r="P9" s="44">
         <f>SUM(O9:O10)</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="46">
         <f>N9-P9</f>
         <v>0</v>
       </c>
-      <c r="R9" s="11"/>
-      <c r="S9" s="3">
+      <c r="R9" s="5"/>
+      <c r="S9" s="42">
         <f>SUM(R9:R10)</f>
         <v>0</v>
       </c>
-      <c r="T9" s="2"/>
-      <c r="U9" s="24">
+      <c r="T9" s="1"/>
+      <c r="U9" s="44">
         <f>SUM(T9:T10)</f>
         <v>0</v>
       </c>
-      <c r="V9" s="12">
+      <c r="V9" s="46">
         <f>S9-U9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="44"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="47"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="67" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="5">
+      <c r="C11" s="5"/>
+      <c r="D11" s="3">
         <f>C11</f>
         <v>0</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="25">
+      <c r="E11" s="1"/>
+      <c r="F11" s="12">
         <f>E11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="6">
         <f>D11-F11</f>
         <v>0</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="5">
+      <c r="H11" s="5"/>
+      <c r="I11" s="3">
         <f>H11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="25">
+      <c r="J11" s="1"/>
+      <c r="K11" s="12">
         <f>J11</f>
         <v>0</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="6">
         <f>I11-K11</f>
         <v>0</v>
       </c>
-      <c r="M11" s="11"/>
-      <c r="N11" s="5">
+      <c r="M11" s="5"/>
+      <c r="N11" s="3">
         <f>M11</f>
         <v>0</v>
       </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="25">
+      <c r="O11" s="1"/>
+      <c r="P11" s="12">
         <f>O11</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="6">
         <f>N11-P11</f>
         <v>0</v>
       </c>
-      <c r="R11" s="11"/>
-      <c r="S11" s="5">
+      <c r="R11" s="5"/>
+      <c r="S11" s="3">
         <f>R11</f>
         <v>0</v>
       </c>
-      <c r="T11" s="2"/>
-      <c r="U11" s="25">
+      <c r="T11" s="1"/>
+      <c r="U11" s="12">
         <f>T11</f>
         <v>0</v>
       </c>
-      <c r="V11" s="13">
+      <c r="V11" s="6">
         <f>S11-U11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1"/>
+      <c r="A12" s="67"/>
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="5">
+      <c r="C12" s="5"/>
+      <c r="D12" s="3">
         <f t="shared" ref="D12:D16" si="0">C12</f>
         <v>0</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="25">
+      <c r="E12" s="1"/>
+      <c r="F12" s="12">
         <f t="shared" ref="F12:F16" si="1">E12</f>
         <v>0</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="6">
         <f t="shared" ref="G12:G16" si="2">D12-F12</f>
         <v>0</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="5">
+      <c r="H12" s="5"/>
+      <c r="I12" s="3">
         <f t="shared" ref="I12:I16" si="3">H12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="25">
+      <c r="J12" s="1"/>
+      <c r="K12" s="12">
         <f t="shared" ref="K12:K16" si="4">J12</f>
         <v>0</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="6">
         <f t="shared" ref="L12:L16" si="5">I12-K12</f>
         <v>0</v>
       </c>
-      <c r="M12" s="11"/>
-      <c r="N12" s="5">
+      <c r="M12" s="5"/>
+      <c r="N12" s="3">
         <f t="shared" ref="N12:N16" si="6">M12</f>
         <v>0</v>
       </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="25">
+      <c r="O12" s="1"/>
+      <c r="P12" s="12">
         <f t="shared" ref="P12:P16" si="7">O12</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="6">
         <f t="shared" ref="Q12:Q16" si="8">N12-P12</f>
         <v>0</v>
       </c>
-      <c r="R12" s="11"/>
-      <c r="S12" s="5">
+      <c r="R12" s="5"/>
+      <c r="S12" s="3">
         <f t="shared" ref="S12:S16" si="9">R12</f>
         <v>0</v>
       </c>
-      <c r="T12" s="2"/>
-      <c r="U12" s="25">
+      <c r="T12" s="1"/>
+      <c r="U12" s="12">
         <f t="shared" ref="U12:U16" si="10">T12</f>
         <v>0</v>
       </c>
-      <c r="V12" s="13">
+      <c r="V12" s="6">
         <f t="shared" ref="V12:V16" si="11">S12-U12</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="46">
+      <c r="C13" s="15"/>
+      <c r="D13" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="47">
+      <c r="E13" s="16"/>
+      <c r="F13" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G13" s="48">
+      <c r="G13" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H13" s="36"/>
-      <c r="I13" s="46">
+      <c r="H13" s="15"/>
+      <c r="I13" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="47">
+      <c r="J13" s="16"/>
+      <c r="K13" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L13" s="48">
+      <c r="L13" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M13" s="36"/>
-      <c r="N13" s="46">
+      <c r="M13" s="15"/>
+      <c r="N13" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O13" s="38"/>
-      <c r="P13" s="47">
+      <c r="O13" s="16"/>
+      <c r="P13" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="48">
+      <c r="Q13" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R13" s="36"/>
-      <c r="S13" s="46">
+      <c r="R13" s="15"/>
+      <c r="S13" s="20">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T13" s="38"/>
-      <c r="U13" s="47">
+      <c r="T13" s="16"/>
+      <c r="U13" s="21">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V13" s="48">
+      <c r="V13" s="22">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="41"/>
-      <c r="B14" s="29" t="s">
+      <c r="A14" s="66"/>
+      <c r="B14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="49">
+      <c r="C14" s="17"/>
+      <c r="D14" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="50">
+      <c r="E14" s="18"/>
+      <c r="F14" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H14" s="42"/>
-      <c r="I14" s="49">
+      <c r="H14" s="17"/>
+      <c r="I14" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J14" s="43"/>
-      <c r="K14" s="50">
+      <c r="J14" s="18"/>
+      <c r="K14" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L14" s="34">
+      <c r="L14" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M14" s="42"/>
-      <c r="N14" s="49">
+      <c r="M14" s="17"/>
+      <c r="N14" s="23">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O14" s="43"/>
-      <c r="P14" s="50">
+      <c r="O14" s="18"/>
+      <c r="P14" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="34">
+      <c r="Q14" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R14" s="42"/>
-      <c r="S14" s="49">
+      <c r="R14" s="17"/>
+      <c r="S14" s="23">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T14" s="43"/>
-      <c r="U14" s="50">
+      <c r="T14" s="18"/>
+      <c r="U14" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V14" s="34">
+      <c r="V14" s="14">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="67" t="s">
         <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="5">
+      <c r="C15" s="5"/>
+      <c r="D15" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="25">
+      <c r="E15" s="1"/>
+      <c r="F15" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="5">
+      <c r="H15" s="5"/>
+      <c r="I15" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="25">
+      <c r="J15" s="1"/>
+      <c r="K15" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M15" s="11"/>
-      <c r="N15" s="5">
+      <c r="M15" s="5"/>
+      <c r="N15" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O15" s="2"/>
-      <c r="P15" s="25">
+      <c r="O15" s="1"/>
+      <c r="P15" s="12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R15" s="11"/>
-      <c r="S15" s="5">
+      <c r="R15" s="5"/>
+      <c r="S15" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T15" s="2"/>
-      <c r="U15" s="25">
+      <c r="T15" s="1"/>
+      <c r="U15" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V15" s="13">
+      <c r="V15" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1"/>
+      <c r="A16" s="67"/>
       <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="5">
+      <c r="C16" s="5"/>
+      <c r="D16" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="25">
+      <c r="E16" s="1"/>
+      <c r="F16" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="5">
+      <c r="H16" s="5"/>
+      <c r="I16" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="25">
+      <c r="J16" s="1"/>
+      <c r="K16" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M16" s="11"/>
-      <c r="N16" s="5">
+      <c r="M16" s="5"/>
+      <c r="N16" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O16" s="2"/>
-      <c r="P16" s="25">
+      <c r="O16" s="1"/>
+      <c r="P16" s="12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="Q16" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R16" s="11"/>
-      <c r="S16" s="5">
+      <c r="R16" s="5"/>
+      <c r="S16" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T16" s="2"/>
-      <c r="U16" s="25">
+      <c r="T16" s="1"/>
+      <c r="U16" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V16" s="13">
+      <c r="V16" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="62">
+      <c r="B17" s="33"/>
+      <c r="C17" s="48">
         <f>ROUND(SUM(D3:D16),2)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="64">
+      <c r="D17" s="49"/>
+      <c r="E17" s="50">
         <f>ROUND(SUM(F3:F16),2)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="65"/>
-      <c r="G17" s="66">
+      <c r="F17" s="51"/>
+      <c r="G17" s="26">
         <f>SUM(G3:G16)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="62">
+      <c r="H17" s="48">
         <f>ROUND(SUM(I3:I16),2)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="63"/>
-      <c r="J17" s="64">
+      <c r="I17" s="49"/>
+      <c r="J17" s="50">
         <f>ROUND(SUM(K3:K16),2)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="65"/>
-      <c r="L17" s="66">
+      <c r="K17" s="51"/>
+      <c r="L17" s="26">
         <f>SUM(L3:L16)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="62">
+      <c r="M17" s="48">
         <f>ROUND(SUM(N3:N16),2)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="63"/>
-      <c r="O17" s="64">
+      <c r="N17" s="49"/>
+      <c r="O17" s="50">
         <f>ROUND(SUM(P3:P16),2)</f>
         <v>0</v>
       </c>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="66">
+      <c r="P17" s="51"/>
+      <c r="Q17" s="26">
         <f>SUM(Q3:Q16)</f>
         <v>0</v>
       </c>
-      <c r="R17" s="62">
+      <c r="R17" s="48">
         <f>ROUND(SUM(S3:S16),2)</f>
         <v>0</v>
       </c>
-      <c r="S17" s="63"/>
-      <c r="T17" s="64">
+      <c r="S17" s="49"/>
+      <c r="T17" s="50">
         <f>ROUND(SUM(U3:U16),2)</f>
         <v>0</v>
       </c>
-      <c r="U17" s="65"/>
-      <c r="V17" s="66">
+      <c r="U17" s="51"/>
+      <c r="V17" s="26">
         <f>SUM(V3:V16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="30" t="e">
+      <c r="A18" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="35"/>
+      <c r="C18" s="52" t="e">
         <f>ROUND(SUM(D3:D16)/COUNTIF(D3:D16,"&gt;0"),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32" t="e">
+      <c r="D18" s="43"/>
+      <c r="E18" s="53" t="e">
         <f>ROUND(SUM(F3:F16)/COUNTIF(F3:F16,"&gt;0"),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34" t="e">
+      <c r="F18" s="45"/>
+      <c r="G18" s="14" t="e">
         <f>ROUND(SUM(G3:G16)/COUNTIF(G3:G16,"&gt;0"),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="30" t="e">
+      <c r="H18" s="52" t="e">
         <f>ROUND(SUM(I3:I16)/COUNTIF(I3:I16,"&gt;0"),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="31"/>
-      <c r="J18" s="32" t="e">
+      <c r="I18" s="43"/>
+      <c r="J18" s="53" t="e">
         <f>ROUND(SUM(K3:K16)/COUNTIF(K3:K16,"&gt;0"),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="33"/>
-      <c r="L18" s="34" t="e">
+      <c r="K18" s="45"/>
+      <c r="L18" s="14" t="e">
         <f>ROUND(SUM(L3:L16)/COUNTIF(L3:L16,"&gt;0"),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M18" s="30" t="e">
+      <c r="M18" s="52" t="e">
         <f>ROUND(SUM(N3:N16)/COUNTIF(N3:N16,"&gt;0"),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N18" s="31"/>
-      <c r="O18" s="32" t="e">
+      <c r="N18" s="43"/>
+      <c r="O18" s="53" t="e">
         <f>ROUND(SUM(P3:P16)/COUNTIF(P3:P16,"&gt;0"),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="34" t="e">
+      <c r="P18" s="45"/>
+      <c r="Q18" s="14" t="e">
         <f>ROUND(SUM(Q3:Q16)/COUNTIF(Q3:Q16,"&gt;0"),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R18" s="30" t="e">
+      <c r="R18" s="52" t="e">
         <f>ROUND(SUM(S3:S16)/COUNTIF(S3:S16,"&gt;0"),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S18" s="31"/>
-      <c r="T18" s="32" t="e">
+      <c r="S18" s="43"/>
+      <c r="T18" s="53" t="e">
         <f>ROUND(SUM(U3:U16)/COUNTIF(U3:U16,"&gt;0"),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U18" s="33"/>
-      <c r="V18" s="34" t="e">
+      <c r="U18" s="45"/>
+      <c r="V18" s="14" t="e">
         <f>ROUND(SUM(V3:V16)/COUNTIF(V3:V16,"&gt;0"),2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="67" t="e">
-        <f>E17/C17</f>
+      <c r="B19" s="37"/>
+      <c r="C19" s="69" t="e">
+        <f>C17/E17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="67" t="e">
-        <f>J17/H17</f>
+      <c r="D19" s="27"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="69" t="e">
+        <f>H17/J17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="68"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="67" t="e">
-        <f>O17/M17</f>
+      <c r="I19" s="27"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="69" t="e">
+        <f>M17/O17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N19" s="68"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="67" t="e">
-        <f>T17/R17</f>
+      <c r="N19" s="27"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="69" t="e">
+        <f>R17/T17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S19" s="68"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="14"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="7"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="15">
+      <c r="B20" s="39"/>
+      <c r="C20" s="28">
         <f>COUNTIF(D3:D16,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15">
+      <c r="D20" s="29"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="28">
         <f>COUNTIF(I3:I16,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="15">
+      <c r="I20" s="29"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="28">
         <f>COUNTIF(N3:N16,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="N20" s="26"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="15">
+      <c r="N20" s="29"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="28">
         <f>COUNTIF(S3:S16,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="S20" s="26"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="14"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="7"/>
     </row>
     <row r="21" spans="1:22" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="16">
+      <c r="B21" s="41"/>
+      <c r="C21" s="30">
         <f>COUNTIFS(D3:D16,"&lt;25",D3:D16,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="D21" s="69"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="16">
+      <c r="D21" s="31"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="30">
         <f>COUNTIFS(I3:I16,"&lt;25",I3:I16,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="I21" s="69"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="16">
+      <c r="I21" s="31"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="30">
         <f>COUNTIFS(N3:N16,"&lt;25",N3:N16,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="N21" s="69"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="16">
+      <c r="N21" s="31"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="30">
         <f>COUNTIFS(S3:S16,"&lt;25",S3:S16,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="S21" s="69"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="18"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="T18:U18"/>
     <mergeCell ref="M21:N21"/>
     <mergeCell ref="R1:V1"/>
@@ -2403,65 +2441,27 @@
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="O18:P18"/>
     <mergeCell ref="M19:N19"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="R18:S18"/>
     <mergeCell ref="M20:N20"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="H21:I21"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D3:D16 C18:D18">
